--- a/jpcore-r4/feature/swg5-fix_doseAndRate_coding/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/swg5-fix_doseAndRate_coding/StructureDefinition-jp-medicationrequest.xlsx
@@ -2999,7 +2999,7 @@
     <t>医薬品単位略号を識別するOID。固定値。</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.2.101</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].code</t>
@@ -3018,9 +3018,6 @@
   </si>
   <si>
     <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]</t>
@@ -3755,6 +3752,9 @@
   </si>
   <si>
     <t>医薬品単位略号を識別するURL。urn:oid:1.2.392.100495.20.2.101で固定される。</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.2.101</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.quantity.code</t>
@@ -28925,7 +28925,7 @@
       </c>
       <c r="X215" s="2"/>
       <c r="Y215" t="s" s="2">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="Z215" t="s" s="2">
         <v>80</v>
@@ -28975,7 +28975,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -28998,19 +28998,19 @@
         <v>89</v>
       </c>
       <c r="J216" t="s" s="2">
+        <v>968</v>
+      </c>
+      <c r="K216" t="s" s="2">
         <v>969</v>
       </c>
-      <c r="K216" t="s" s="2">
+      <c r="L216" t="s" s="2">
         <v>970</v>
       </c>
-      <c r="L216" t="s" s="2">
+      <c r="M216" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="M216" t="s" s="2">
+      <c r="N216" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="N216" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>80</v>
@@ -29057,7 +29057,7 @@
         <v>316</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>78</v>
@@ -29078,18 +29078,18 @@
         <v>80</v>
       </c>
       <c r="AL216" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="AM216" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN216" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="AM216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN216" t="s" s="2">
-        <v>976</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -29201,7 +29201,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29315,7 +29315,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29341,10 +29341,10 @@
         <v>941</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
@@ -29395,7 +29395,7 @@
         <v>80</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>78</v>
@@ -29416,7 +29416,7 @@
         <v>80</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>80</v>
@@ -29427,7 +29427,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29539,7 +29539,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29653,7 +29653,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29679,10 +29679,10 @@
         <v>667</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M222" t="s" s="2">
         <v>669</v>
@@ -29769,7 +29769,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29885,7 +29885,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29911,10 +29911,10 @@
         <v>90</v>
       </c>
       <c r="K224" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L224" t="s" s="2">
         <v>988</v>
-      </c>
-      <c r="L224" t="s" s="2">
-        <v>989</v>
       </c>
       <c r="M224" s="2"/>
       <c r="N224" t="s" s="2">
@@ -29999,7 +29999,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -30025,7 +30025,7 @@
         <v>102</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="L225" t="s" s="2">
         <v>959</v>
@@ -30111,7 +30111,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -30227,7 +30227,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30253,10 +30253,10 @@
         <v>941</v>
       </c>
       <c r="K227" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="L227" t="s" s="2">
         <v>994</v>
-      </c>
-      <c r="L227" t="s" s="2">
-        <v>995</v>
       </c>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -30307,7 +30307,7 @@
         <v>80</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>78</v>
@@ -30328,7 +30328,7 @@
         <v>80</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>80</v>
@@ -30339,10 +30339,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C228" t="s" s="2">
         <v>80</v>
@@ -30364,19 +30364,19 @@
         <v>89</v>
       </c>
       <c r="J228" t="s" s="2">
+        <v>968</v>
+      </c>
+      <c r="K228" t="s" s="2">
         <v>969</v>
       </c>
-      <c r="K228" t="s" s="2">
+      <c r="L228" t="s" s="2">
         <v>970</v>
       </c>
-      <c r="L228" t="s" s="2">
+      <c r="M228" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="M228" t="s" s="2">
+      <c r="N228" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>80</v>
@@ -30425,7 +30425,7 @@
         <v>80</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>78</v>
@@ -30446,18 +30446,18 @@
         <v>80</v>
       </c>
       <c r="AL228" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="AM228" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN228" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="AM228" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN228" t="s" s="2">
-        <v>976</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30569,7 +30569,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30683,7 +30683,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30709,10 +30709,10 @@
         <v>941</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
@@ -30763,7 +30763,7 @@
         <v>80</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>78</v>
@@ -30784,7 +30784,7 @@
         <v>80</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>80</v>
@@ -30795,7 +30795,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30907,7 +30907,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -31021,7 +31021,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -31047,10 +31047,10 @@
         <v>667</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M234" t="s" s="2">
         <v>669</v>
@@ -31137,7 +31137,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -31253,7 +31253,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31279,10 +31279,10 @@
         <v>90</v>
       </c>
       <c r="K236" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L236" t="s" s="2">
         <v>988</v>
-      </c>
-      <c r="L236" t="s" s="2">
-        <v>989</v>
       </c>
       <c r="M236" s="2"/>
       <c r="N236" t="s" s="2">
@@ -31367,7 +31367,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31393,7 +31393,7 @@
         <v>102</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="L237" t="s" s="2">
         <v>959</v>
@@ -31479,7 +31479,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -31543,7 +31543,7 @@
       </c>
       <c r="X238" s="2"/>
       <c r="Y238" t="s" s="2">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="Z238" t="s" s="2">
         <v>80</v>
@@ -31593,7 +31593,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31619,10 +31619,10 @@
         <v>941</v>
       </c>
       <c r="K239" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="L239" t="s" s="2">
         <v>999</v>
-      </c>
-      <c r="L239" t="s" s="2">
-        <v>1000</v>
       </c>
       <c r="M239" s="2"/>
       <c r="N239" s="2"/>
@@ -31673,7 +31673,7 @@
         <v>80</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>78</v>
@@ -31694,7 +31694,7 @@
         <v>80</v>
       </c>
       <c r="AL239" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AM239" t="s" s="2">
         <v>80</v>
@@ -31705,7 +31705,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31817,7 +31817,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31931,7 +31931,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -31957,10 +31957,10 @@
         <v>667</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="M242" t="s" s="2">
         <v>669</v>
@@ -32047,7 +32047,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -32163,7 +32163,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -32189,10 +32189,10 @@
         <v>90</v>
       </c>
       <c r="K244" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="L244" t="s" s="2">
         <v>1007</v>
-      </c>
-      <c r="L244" t="s" s="2">
-        <v>1008</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" t="s" s="2">
@@ -32277,7 +32277,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -32303,10 +32303,10 @@
         <v>102</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M245" s="2"/>
       <c r="N245" t="s" s="2">
@@ -32391,7 +32391,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32417,10 +32417,10 @@
         <v>108</v>
       </c>
       <c r="K246" t="s" s="2">
+        <v>1011</v>
+      </c>
+      <c r="L246" t="s" s="2">
         <v>1012</v>
-      </c>
-      <c r="L246" t="s" s="2">
-        <v>1013</v>
       </c>
       <c r="M246" t="s" s="2">
         <v>703</v>
@@ -32507,7 +32507,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -32530,19 +32530,19 @@
         <v>89</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="K247" t="s" s="2">
+        <v>1014</v>
+      </c>
+      <c r="L247" t="s" s="2">
+        <v>1014</v>
+      </c>
+      <c r="M247" t="s" s="2">
         <v>1015</v>
       </c>
-      <c r="L247" t="s" s="2">
-        <v>1015</v>
-      </c>
-      <c r="M247" t="s" s="2">
+      <c r="N247" t="s" s="2">
         <v>1016</v>
-      </c>
-      <c r="N247" t="s" s="2">
-        <v>1017</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>80</v>
@@ -32591,7 +32591,7 @@
         <v>80</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>78</v>
@@ -32612,18 +32612,18 @@
         <v>80</v>
       </c>
       <c r="AL247" t="s" s="2">
+        <v>1018</v>
+      </c>
+      <c r="AM247" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN247" t="s" s="2">
         <v>1019</v>
-      </c>
-      <c r="AM247" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN247" t="s" s="2">
-        <v>1020</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -32735,7 +32735,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -32849,7 +32849,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -32875,13 +32875,13 @@
         <v>941</v>
       </c>
       <c r="K250" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="L250" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="M250" t="s" s="2">
         <v>1024</v>
-      </c>
-      <c r="L250" t="s" s="2">
-        <v>1024</v>
-      </c>
-      <c r="M250" t="s" s="2">
-        <v>1025</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
@@ -32931,7 +32931,7 @@
         <v>80</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>78</v>
@@ -32952,7 +32952,7 @@
         <v>80</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>80</v>
@@ -32963,7 +32963,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -33075,7 +33075,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -33189,7 +33189,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -33215,13 +33215,13 @@
         <v>667</v>
       </c>
       <c r="K253" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L253" t="s" s="2">
         <v>1029</v>
       </c>
-      <c r="L253" t="s" s="2">
+      <c r="M253" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="M253" t="s" s="2">
-        <v>1031</v>
       </c>
       <c r="N253" t="s" s="2">
         <v>670</v>
@@ -33305,7 +33305,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33331,16 +33331,16 @@
         <v>108</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L254" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M254" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>80</v>
@@ -33423,7 +33423,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -33449,16 +33449,16 @@
         <v>90</v>
       </c>
       <c r="K255" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="L255" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L255" t="s" s="2">
-        <v>1038</v>
       </c>
       <c r="M255" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>80</v>
@@ -33539,7 +33539,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -33565,16 +33565,16 @@
         <v>102</v>
       </c>
       <c r="K256" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L256" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="L256" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="M256" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>80</v>
@@ -33655,7 +33655,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33681,16 +33681,16 @@
         <v>108</v>
       </c>
       <c r="K257" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L257" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L257" t="s" s="2">
+      <c r="M257" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M257" t="s" s="2">
+      <c r="N257" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N257" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>80</v>
@@ -33771,7 +33771,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33797,13 +33797,13 @@
         <v>941</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N258" s="2"/>
       <c r="O258" t="s" s="2">
@@ -33853,7 +33853,7 @@
         <v>80</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>78</v>
@@ -33874,7 +33874,7 @@
         <v>80</v>
       </c>
       <c r="AL258" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AM258" t="s" s="2">
         <v>80</v>
@@ -33885,7 +33885,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -33997,7 +33997,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -34111,7 +34111,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -34137,13 +34137,13 @@
         <v>667</v>
       </c>
       <c r="K261" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L261" t="s" s="2">
         <v>1029</v>
       </c>
-      <c r="L261" t="s" s="2">
+      <c r="M261" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="M261" t="s" s="2">
-        <v>1031</v>
       </c>
       <c r="N261" t="s" s="2">
         <v>670</v>
@@ -34227,7 +34227,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34253,16 +34253,16 @@
         <v>108</v>
       </c>
       <c r="K262" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L262" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L262" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M262" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>80</v>
@@ -34345,7 +34345,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34371,16 +34371,16 @@
         <v>90</v>
       </c>
       <c r="K263" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="L263" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L263" t="s" s="2">
-        <v>1038</v>
       </c>
       <c r="M263" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>80</v>
@@ -34461,7 +34461,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34487,16 +34487,16 @@
         <v>102</v>
       </c>
       <c r="K264" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L264" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="L264" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="M264" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>80</v>
@@ -34577,7 +34577,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34603,16 +34603,16 @@
         <v>108</v>
       </c>
       <c r="K265" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L265" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L265" t="s" s="2">
+      <c r="M265" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M265" t="s" s="2">
+      <c r="N265" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N265" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>80</v>
@@ -34693,7 +34693,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34716,19 +34716,19 @@
         <v>89</v>
       </c>
       <c r="J266" t="s" s="2">
+        <v>1058</v>
+      </c>
+      <c r="K266" t="s" s="2">
         <v>1059</v>
       </c>
-      <c r="K266" t="s" s="2">
+      <c r="L266" t="s" s="2">
+        <v>1059</v>
+      </c>
+      <c r="M266" t="s" s="2">
         <v>1060</v>
       </c>
-      <c r="L266" t="s" s="2">
-        <v>1060</v>
-      </c>
-      <c r="M266" t="s" s="2">
+      <c r="N266" t="s" s="2">
         <v>1061</v>
-      </c>
-      <c r="N266" t="s" s="2">
-        <v>1062</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>80</v>
@@ -34777,7 +34777,7 @@
         <v>80</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>78</v>
@@ -34798,7 +34798,7 @@
         <v>80</v>
       </c>
       <c r="AL266" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AM266" t="s" s="2">
         <v>80</v>
@@ -34809,7 +34809,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34921,7 +34921,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -35035,7 +35035,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -35061,13 +35061,13 @@
         <v>667</v>
       </c>
       <c r="K269" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L269" t="s" s="2">
         <v>1029</v>
       </c>
-      <c r="L269" t="s" s="2">
+      <c r="M269" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="M269" t="s" s="2">
-        <v>1031</v>
       </c>
       <c r="N269" t="s" s="2">
         <v>670</v>
@@ -35151,7 +35151,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35177,16 +35177,16 @@
         <v>108</v>
       </c>
       <c r="K270" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L270" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L270" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M270" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>80</v>
@@ -35269,7 +35269,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35295,16 +35295,16 @@
         <v>90</v>
       </c>
       <c r="K271" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="L271" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L271" t="s" s="2">
-        <v>1038</v>
       </c>
       <c r="M271" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>80</v>
@@ -35385,7 +35385,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35411,16 +35411,16 @@
         <v>102</v>
       </c>
       <c r="K272" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L272" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="L272" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="M272" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>80</v>
@@ -35501,7 +35501,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35527,16 +35527,16 @@
         <v>108</v>
       </c>
       <c r="K273" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L273" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L273" t="s" s="2">
+      <c r="M273" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M273" t="s" s="2">
+      <c r="N273" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N273" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>80</v>
@@ -35617,7 +35617,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35640,19 +35640,19 @@
         <v>89</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K274" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="L274" t="s" s="2">
         <v>1073</v>
       </c>
-      <c r="L274" t="s" s="2">
+      <c r="M274" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="N274" t="s" s="2">
         <v>1074</v>
-      </c>
-      <c r="M274" t="s" s="2">
-        <v>1025</v>
-      </c>
-      <c r="N274" t="s" s="2">
-        <v>1075</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>80</v>
@@ -35701,7 +35701,7 @@
         <v>80</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>78</v>
@@ -35722,7 +35722,7 @@
         <v>80</v>
       </c>
       <c r="AL274" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AM274" t="s" s="2">
         <v>80</v>
@@ -35733,7 +35733,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -35845,7 +35845,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35959,7 +35959,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35985,13 +35985,13 @@
         <v>667</v>
       </c>
       <c r="K277" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L277" t="s" s="2">
         <v>1029</v>
       </c>
-      <c r="L277" t="s" s="2">
+      <c r="M277" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="M277" t="s" s="2">
-        <v>1031</v>
       </c>
       <c r="N277" t="s" s="2">
         <v>670</v>
@@ -36075,7 +36075,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -36101,16 +36101,16 @@
         <v>108</v>
       </c>
       <c r="K278" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L278" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L278" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M278" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>80</v>
@@ -36193,7 +36193,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36219,16 +36219,16 @@
         <v>90</v>
       </c>
       <c r="K279" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="L279" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L279" t="s" s="2">
-        <v>1038</v>
       </c>
       <c r="M279" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>80</v>
@@ -36309,7 +36309,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36335,16 +36335,16 @@
         <v>102</v>
       </c>
       <c r="K280" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L280" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="L280" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="M280" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>80</v>
@@ -36425,7 +36425,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36451,16 +36451,16 @@
         <v>108</v>
       </c>
       <c r="K281" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L281" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L281" t="s" s="2">
+      <c r="M281" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M281" t="s" s="2">
+      <c r="N281" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N281" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>80</v>
@@ -36541,7 +36541,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36564,13 +36564,13 @@
         <v>80</v>
       </c>
       <c r="J282" t="s" s="2">
+        <v>1084</v>
+      </c>
+      <c r="K282" t="s" s="2">
         <v>1085</v>
       </c>
-      <c r="K282" t="s" s="2">
+      <c r="L282" t="s" s="2">
         <v>1086</v>
-      </c>
-      <c r="L282" t="s" s="2">
-        <v>1087</v>
       </c>
       <c r="M282" s="2"/>
       <c r="N282" s="2"/>
@@ -36621,7 +36621,7 @@
         <v>80</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>78</v>
@@ -36639,10 +36639,10 @@
         <v>80</v>
       </c>
       <c r="AK282" t="s" s="2">
+        <v>1087</v>
+      </c>
+      <c r="AL282" t="s" s="2">
         <v>1088</v>
-      </c>
-      <c r="AL282" t="s" s="2">
-        <v>1089</v>
       </c>
       <c r="AM282" t="s" s="2">
         <v>80</v>
@@ -36653,7 +36653,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36765,7 +36765,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36875,10 +36875,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
+        <v>1090</v>
+      </c>
+      <c r="B285" t="s" s="2">
         <v>1091</v>
-      </c>
-      <c r="B285" t="s" s="2">
-        <v>1092</v>
       </c>
       <c r="C285" t="s" s="2">
         <v>80</v>
@@ -36900,13 +36900,13 @@
         <v>80</v>
       </c>
       <c r="J285" t="s" s="2">
+        <v>1092</v>
+      </c>
+      <c r="K285" t="s" s="2">
         <v>1093</v>
       </c>
-      <c r="K285" t="s" s="2">
+      <c r="L285" t="s" s="2">
         <v>1094</v>
-      </c>
-      <c r="L285" t="s" s="2">
-        <v>1095</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
@@ -36989,7 +36989,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -37101,7 +37101,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -37213,7 +37213,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37239,13 +37239,13 @@
         <v>102</v>
       </c>
       <c r="K288" t="s" s="2">
+        <v>1098</v>
+      </c>
+      <c r="L288" t="s" s="2">
         <v>1099</v>
       </c>
-      <c r="L288" t="s" s="2">
+      <c r="M288" t="s" s="2">
         <v>1100</v>
-      </c>
-      <c r="M288" t="s" s="2">
-        <v>1101</v>
       </c>
       <c r="N288" s="2"/>
       <c r="O288" t="s" s="2">
@@ -37253,49 +37253,49 @@
       </c>
       <c r="P288" s="2"/>
       <c r="Q288" t="s" s="2">
+        <v>1101</v>
+      </c>
+      <c r="R288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE288" t="s" s="2">
         <v>1102</v>
-      </c>
-      <c r="R288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE288" t="s" s="2">
-        <v>1103</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>88</v>
@@ -37327,7 +37327,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37353,10 +37353,10 @@
         <v>189</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
@@ -37405,7 +37405,7 @@
         <v>316</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>78</v>
@@ -37437,10 +37437,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C290" t="s" s="2">
         <v>80</v>
@@ -37465,10 +37465,10 @@
         <v>189</v>
       </c>
       <c r="K290" t="s" s="2">
+        <v>1107</v>
+      </c>
+      <c r="L290" t="s" s="2">
         <v>1108</v>
-      </c>
-      <c r="L290" t="s" s="2">
-        <v>1109</v>
       </c>
       <c r="M290" s="2"/>
       <c r="N290" s="2"/>
@@ -37519,7 +37519,7 @@
         <v>80</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>78</v>
@@ -37551,7 +37551,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37663,7 +37663,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -37777,7 +37777,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37841,7 +37841,7 @@
       </c>
       <c r="X293" s="2"/>
       <c r="Y293" t="s" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="Z293" t="s" s="2">
         <v>80</v>
@@ -37891,7 +37891,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -37917,13 +37917,13 @@
         <v>90</v>
       </c>
       <c r="K294" t="s" s="2">
+        <v>1114</v>
+      </c>
+      <c r="L294" t="s" s="2">
         <v>1115</v>
       </c>
-      <c r="L294" t="s" s="2">
+      <c r="M294" t="s" s="2">
         <v>1116</v>
-      </c>
-      <c r="M294" t="s" s="2">
-        <v>1117</v>
       </c>
       <c r="N294" t="s" s="2">
         <v>377</v>
@@ -38007,10 +38007,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C295" t="s" s="2">
         <v>80</v>
@@ -38032,13 +38032,13 @@
         <v>80</v>
       </c>
       <c r="J295" t="s" s="2">
+        <v>1118</v>
+      </c>
+      <c r="K295" t="s" s="2">
         <v>1119</v>
       </c>
-      <c r="K295" t="s" s="2">
-        <v>1120</v>
-      </c>
       <c r="L295" t="s" s="2">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
@@ -38121,7 +38121,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -38237,7 +38237,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -38260,16 +38260,16 @@
         <v>80</v>
       </c>
       <c r="J297" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="K297" t="s" s="2">
+        <v>1122</v>
+      </c>
+      <c r="L297" t="s" s="2">
         <v>1123</v>
       </c>
-      <c r="L297" t="s" s="2">
+      <c r="M297" t="s" s="2">
         <v>1124</v>
-      </c>
-      <c r="M297" t="s" s="2">
-        <v>1125</v>
       </c>
       <c r="N297" s="2"/>
       <c r="O297" t="s" s="2">
@@ -38319,7 +38319,7 @@
         <v>80</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>78</v>
@@ -38340,7 +38340,7 @@
         <v>80</v>
       </c>
       <c r="AL297" t="s" s="2">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AM297" t="s" s="2">
         <v>80</v>
@@ -38351,7 +38351,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -38463,7 +38463,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -38577,7 +38577,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38693,7 +38693,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38716,16 +38716,16 @@
         <v>80</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K301" t="s" s="2">
+        <v>1130</v>
+      </c>
+      <c r="L301" t="s" s="2">
         <v>1131</v>
       </c>
-      <c r="L301" t="s" s="2">
-        <v>1132</v>
-      </c>
       <c r="M301" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N301" s="2"/>
       <c r="O301" t="s" s="2">
@@ -38775,7 +38775,7 @@
         <v>80</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>78</v>
@@ -38796,7 +38796,7 @@
         <v>80</v>
       </c>
       <c r="AL301" t="s" s="2">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AM301" t="s" s="2">
         <v>80</v>
@@ -38807,7 +38807,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -38919,7 +38919,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -39033,7 +39033,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -39059,13 +39059,13 @@
         <v>667</v>
       </c>
       <c r="K304" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L304" t="s" s="2">
         <v>1029</v>
       </c>
-      <c r="L304" t="s" s="2">
+      <c r="M304" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="M304" t="s" s="2">
-        <v>1031</v>
       </c>
       <c r="N304" t="s" s="2">
         <v>670</v>
@@ -39149,7 +39149,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -39175,16 +39175,16 @@
         <v>108</v>
       </c>
       <c r="K305" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L305" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L305" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M305" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>80</v>
@@ -39267,7 +39267,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39293,16 +39293,16 @@
         <v>90</v>
       </c>
       <c r="K306" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="L306" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L306" t="s" s="2">
-        <v>1038</v>
       </c>
       <c r="M306" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O306" t="s" s="2">
         <v>80</v>
@@ -39383,7 +39383,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -39409,16 +39409,16 @@
         <v>102</v>
       </c>
       <c r="K307" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L307" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="L307" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="M307" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>80</v>
@@ -39499,7 +39499,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39525,16 +39525,16 @@
         <v>108</v>
       </c>
       <c r="K308" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L308" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L308" t="s" s="2">
+      <c r="M308" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M308" t="s" s="2">
+      <c r="N308" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N308" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>80</v>
@@ -39615,7 +39615,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39641,13 +39641,13 @@
         <v>661</v>
       </c>
       <c r="K309" t="s" s="2">
+        <v>1141</v>
+      </c>
+      <c r="L309" t="s" s="2">
         <v>1142</v>
       </c>
-      <c r="L309" t="s" s="2">
-        <v>1143</v>
-      </c>
       <c r="M309" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N309" s="2"/>
       <c r="O309" t="s" s="2">
@@ -39697,7 +39697,7 @@
         <v>80</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>78</v>
@@ -39718,7 +39718,7 @@
         <v>80</v>
       </c>
       <c r="AL309" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AM309" t="s" s="2">
         <v>80</v>
@@ -39729,7 +39729,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -39841,7 +39841,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39955,7 +39955,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -39981,13 +39981,13 @@
         <v>667</v>
       </c>
       <c r="K312" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L312" t="s" s="2">
         <v>1029</v>
       </c>
-      <c r="L312" t="s" s="2">
+      <c r="M312" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="M312" t="s" s="2">
-        <v>1031</v>
       </c>
       <c r="N312" t="s" s="2">
         <v>670</v>
@@ -40071,7 +40071,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -40097,16 +40097,16 @@
         <v>108</v>
       </c>
       <c r="K313" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L313" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L313" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M313" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>80</v>
@@ -40189,7 +40189,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -40215,16 +40215,16 @@
         <v>90</v>
       </c>
       <c r="K314" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="L314" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L314" t="s" s="2">
-        <v>1038</v>
       </c>
       <c r="M314" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>80</v>
@@ -40305,7 +40305,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40331,16 +40331,16 @@
         <v>102</v>
       </c>
       <c r="K315" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L315" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="L315" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="M315" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>80</v>
@@ -40421,7 +40421,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -40447,16 +40447,16 @@
         <v>108</v>
       </c>
       <c r="K316" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L316" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L316" t="s" s="2">
+      <c r="M316" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M316" t="s" s="2">
+      <c r="N316" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N316" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>80</v>
@@ -40537,7 +40537,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -40563,13 +40563,13 @@
         <v>661</v>
       </c>
       <c r="K317" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="L317" t="s" s="2">
         <v>1153</v>
       </c>
-      <c r="L317" t="s" s="2">
-        <v>1154</v>
-      </c>
       <c r="M317" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N317" s="2"/>
       <c r="O317" t="s" s="2">
@@ -40619,7 +40619,7 @@
         <v>80</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>78</v>
@@ -40640,7 +40640,7 @@
         <v>80</v>
       </c>
       <c r="AL317" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AM317" t="s" s="2">
         <v>80</v>
@@ -40651,7 +40651,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -40763,7 +40763,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -40877,7 +40877,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -40903,13 +40903,13 @@
         <v>667</v>
       </c>
       <c r="K320" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L320" t="s" s="2">
         <v>1029</v>
       </c>
-      <c r="L320" t="s" s="2">
+      <c r="M320" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="M320" t="s" s="2">
-        <v>1031</v>
       </c>
       <c r="N320" t="s" s="2">
         <v>670</v>
@@ -40993,7 +40993,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -41019,16 +41019,16 @@
         <v>108</v>
       </c>
       <c r="K321" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L321" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L321" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M321" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O321" t="s" s="2">
         <v>80</v>
@@ -41111,7 +41111,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -41137,16 +41137,16 @@
         <v>90</v>
       </c>
       <c r="K322" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="L322" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="L322" t="s" s="2">
-        <v>1038</v>
       </c>
       <c r="M322" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O322" t="s" s="2">
         <v>80</v>
@@ -41227,7 +41227,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -41253,16 +41253,16 @@
         <v>102</v>
       </c>
       <c r="K323" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L323" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="L323" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="M323" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O323" t="s" s="2">
         <v>80</v>
@@ -41343,7 +41343,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -41369,16 +41369,16 @@
         <v>108</v>
       </c>
       <c r="K324" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="L324" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="L324" t="s" s="2">
+      <c r="M324" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M324" t="s" s="2">
+      <c r="N324" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N324" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>80</v>
@@ -41459,7 +41459,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -41485,16 +41485,16 @@
         <v>218</v>
       </c>
       <c r="K325" t="s" s="2">
+        <v>1162</v>
+      </c>
+      <c r="L325" t="s" s="2">
         <v>1163</v>
       </c>
-      <c r="L325" t="s" s="2">
+      <c r="M325" t="s" s="2">
         <v>1164</v>
       </c>
-      <c r="M325" t="s" s="2">
+      <c r="N325" t="s" s="2">
         <v>1165</v>
-      </c>
-      <c r="N325" t="s" s="2">
-        <v>1166</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>80</v>
@@ -41543,7 +41543,7 @@
         <v>80</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>78</v>
@@ -41561,10 +41561,10 @@
         <v>80</v>
       </c>
       <c r="AK325" t="s" s="2">
+        <v>1166</v>
+      </c>
+      <c r="AL325" t="s" s="2">
         <v>1167</v>
-      </c>
-      <c r="AL325" t="s" s="2">
-        <v>1168</v>
       </c>
       <c r="AM325" t="s" s="2">
         <v>80</v>
@@ -41575,7 +41575,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -41687,7 +41687,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -41801,7 +41801,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -41827,13 +41827,13 @@
         <v>438</v>
       </c>
       <c r="K328" t="s" s="2">
+        <v>1171</v>
+      </c>
+      <c r="L328" t="s" s="2">
         <v>1172</v>
       </c>
-      <c r="L328" t="s" s="2">
+      <c r="M328" t="s" s="2">
         <v>1173</v>
-      </c>
-      <c r="M328" t="s" s="2">
-        <v>1174</v>
       </c>
       <c r="N328" s="2"/>
       <c r="O328" t="s" s="2">
@@ -41883,16 +41883,16 @@
         <v>80</v>
       </c>
       <c r="AE328" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="AF328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG328" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH328" t="s" s="2">
         <v>1175</v>
-      </c>
-      <c r="AF328" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG328" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH328" t="s" s="2">
-        <v>1176</v>
       </c>
       <c r="AI328" t="s" s="2">
         <v>100</v>
@@ -41904,18 +41904,18 @@
         <v>80</v>
       </c>
       <c r="AL328" t="s" s="2">
+        <v>1176</v>
+      </c>
+      <c r="AM328" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN328" t="s" s="2">
         <v>1177</v>
-      </c>
-      <c r="AM328" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN328" t="s" s="2">
-        <v>1178</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -41941,66 +41941,66 @@
         <v>438</v>
       </c>
       <c r="K329" t="s" s="2">
+        <v>1179</v>
+      </c>
+      <c r="L329" t="s" s="2">
         <v>1180</v>
       </c>
-      <c r="L329" t="s" s="2">
+      <c r="M329" t="s" s="2">
         <v>1181</v>
-      </c>
-      <c r="M329" t="s" s="2">
-        <v>1182</v>
       </c>
       <c r="N329" s="2"/>
       <c r="O329" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P329" t="s" s="2">
+        <v>1182</v>
+      </c>
+      <c r="Q329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE329" t="s" s="2">
         <v>1183</v>
       </c>
-      <c r="Q329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE329" t="s" s="2">
-        <v>1184</v>
-      </c>
       <c r="AF329" t="s" s="2">
         <v>78</v>
       </c>
@@ -42008,7 +42008,7 @@
         <v>88</v>
       </c>
       <c r="AH329" t="s" s="2">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AI329" t="s" s="2">
         <v>100</v>
@@ -42020,18 +42020,18 @@
         <v>80</v>
       </c>
       <c r="AL329" t="s" s="2">
+        <v>1184</v>
+      </c>
+      <c r="AM329" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN329" t="s" s="2">
         <v>1185</v>
-      </c>
-      <c r="AM329" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN329" t="s" s="2">
-        <v>1186</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -42057,13 +42057,13 @@
         <v>784</v>
       </c>
       <c r="K330" t="s" s="2">
+        <v>1187</v>
+      </c>
+      <c r="L330" t="s" s="2">
         <v>1188</v>
       </c>
-      <c r="L330" t="s" s="2">
+      <c r="M330" t="s" s="2">
         <v>1189</v>
-      </c>
-      <c r="M330" t="s" s="2">
-        <v>1190</v>
       </c>
       <c r="N330" s="2"/>
       <c r="O330" t="s" s="2">
@@ -42113,7 +42113,7 @@
         <v>80</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>78</v>
@@ -42131,21 +42131,21 @@
         <v>80</v>
       </c>
       <c r="AK330" t="s" s="2">
+        <v>1190</v>
+      </c>
+      <c r="AL330" t="s" s="2">
         <v>1191</v>
       </c>
-      <c r="AL330" t="s" s="2">
+      <c r="AM330" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN330" t="s" s="2">
         <v>1192</v>
-      </c>
-      <c r="AM330" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN330" t="s" s="2">
-        <v>1193</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -42168,16 +42168,16 @@
         <v>80</v>
       </c>
       <c r="J331" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K331" t="s" s="2">
+        <v>1194</v>
+      </c>
+      <c r="L331" t="s" s="2">
         <v>1195</v>
       </c>
-      <c r="L331" t="s" s="2">
-        <v>1196</v>
-      </c>
       <c r="M331" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N331" s="2"/>
       <c r="O331" t="s" s="2">
@@ -42227,7 +42227,7 @@
         <v>80</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>78</v>
@@ -42245,21 +42245,21 @@
         <v>80</v>
       </c>
       <c r="AK331" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="AL331" t="s" s="2">
         <v>1197</v>
       </c>
-      <c r="AL331" t="s" s="2">
+      <c r="AM331" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN331" t="s" s="2">
         <v>1198</v>
-      </c>
-      <c r="AM331" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN331" t="s" s="2">
-        <v>1199</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -42371,7 +42371,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -42485,7 +42485,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -42511,13 +42511,13 @@
         <v>667</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="N334" t="s" s="2">
         <v>670</v>
@@ -42601,7 +42601,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -42627,16 +42627,16 @@
         <v>108</v>
       </c>
       <c r="K335" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L335" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L335" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M335" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>80</v>
@@ -42719,7 +42719,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -42745,16 +42745,16 @@
         <v>90</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="M336" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>80</v>
@@ -42835,7 +42835,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -42861,16 +42861,16 @@
         <v>102</v>
       </c>
       <c r="K337" t="s" s="2">
+        <v>1207</v>
+      </c>
+      <c r="L337" t="s" s="2">
         <v>1208</v>
-      </c>
-      <c r="L337" t="s" s="2">
-        <v>1209</v>
       </c>
       <c r="M337" t="s" s="2">
         <v>500</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>80</v>
@@ -42880,7 +42880,7 @@
         <v>80</v>
       </c>
       <c r="R337" t="s" s="2">
-        <v>960</v>
+        <v>1209</v>
       </c>
       <c r="S337" t="s" s="2">
         <v>80</v>
@@ -42983,10 +42983,10 @@
         <v>1211</v>
       </c>
       <c r="M338" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="N338" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N338" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>80</v>
@@ -43015,7 +43015,7 @@
       </c>
       <c r="X338" s="2"/>
       <c r="Y338" t="s" s="2">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="Z338" t="s" s="2">
         <v>80</v>
@@ -43437,7 +43437,7 @@
         <v>1213</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="N342" t="s" s="2">
         <v>670</v>
@@ -43547,16 +43547,16 @@
         <v>108</v>
       </c>
       <c r="K343" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L343" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L343" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M343" t="s" s="2">
         <v>576</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>80</v>
@@ -43674,7 +43674,7 @@
         <v>576</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O344" t="s" s="2">
         <v>80</v>
@@ -43781,7 +43781,7 @@
         <v>102</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="L345" t="s" s="2">
         <v>1226</v>
@@ -43790,7 +43790,7 @@
         <v>500</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O345" t="s" s="2">
         <v>80</v>
@@ -43903,10 +43903,10 @@
         <v>1229</v>
       </c>
       <c r="M346" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="N346" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="N346" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>80</v>
@@ -44124,7 +44124,7 @@
         <v>80</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="K348" t="s" s="2">
         <v>1235</v>
@@ -45835,13 +45835,13 @@
         <v>90</v>
       </c>
       <c r="K363" t="s" s="2">
+        <v>1114</v>
+      </c>
+      <c r="L363" t="s" s="2">
         <v>1115</v>
       </c>
-      <c r="L363" t="s" s="2">
+      <c r="M363" t="s" s="2">
         <v>1116</v>
-      </c>
-      <c r="M363" t="s" s="2">
-        <v>1117</v>
       </c>
       <c r="N363" t="s" s="2">
         <v>377</v>
